--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
@@ -456,24 +456,24 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5" s="4" customFormat="1">
-      <x:c r="C2" s="2" t="s"/>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="3" t="s"/>
+      <x:c r="C2" s="2"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:5" s="4" customFormat="1">
-      <x:c r="C3" s="2" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="3" t="s"/>
+      <x:c r="C3" s="2"/>
+      <x:c r="D3" s="2"/>
+      <x:c r="E3" s="3"/>
     </x:row>
     <x:row r="5" spans="1:5" s="5" customFormat="1">
-      <x:c r="C5" s="5" t="s"/>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="E5" s="3" t="s"/>
+      <x:c r="C5" s="5"/>
+      <x:c r="D5" s="5"/>
+      <x:c r="E5" s="3"/>
     </x:row>
     <x:row r="6" spans="1:5" s="6" customFormat="1">
-      <x:c r="C6" s="6" t="s"/>
-      <x:c r="D6" s="6" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
+      <x:c r="C6" s="6"/>
+      <x:c r="D6" s="6"/>
+      <x:c r="E6" s="3"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
@@ -466,13 +466,9 @@
       <x:c r="E3" s="3"/>
     </x:row>
     <x:row r="5" spans="1:5" s="5" customFormat="1">
-      <x:c r="C5" s="5"/>
-      <x:c r="D5" s="5"/>
       <x:c r="E5" s="3"/>
     </x:row>
     <x:row r="6" spans="1:5" s="6" customFormat="1">
-      <x:c r="C6" s="6"/>
-      <x:c r="D6" s="6"/>
       <x:c r="E6" s="3"/>
     </x:row>
   </x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,7 +439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleRowsColumns.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Style Rows and Columns" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Style Rows and Columns" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
